--- a/RawData/DQL-potato.xlsx
+++ b/RawData/DQL-potato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini/Documents/GitHub/ExperimentalStatistics/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EDA9727-B2CA-B44F-B935-F2E21AFE1E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFC3AAA-48B2-8D4F-973F-434DB1DBFB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="2340" windowWidth="27840" windowHeight="16740" xr2:uid="{108A3F78-6C42-484E-8170-868771827AD9}"/>
+    <workbookView xWindow="23900" yWindow="3640" windowWidth="17280" windowHeight="16740" xr2:uid="{108A3F78-6C42-484E-8170-868771827AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC-potato" sheetId="1" r:id="rId1"/>
@@ -906,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B13FA4-50F8-9045-A679-9E82C9F3B801}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B37" si="0">A3&amp;" Gy"</f>
+        <f t="shared" ref="B3:B26" si="0">A3&amp;" Gy"</f>
         <v>0 Gy</v>
       </c>
       <c r="C3">
@@ -1005,152 +1005,152 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>0 Gy</v>
+        <v>2 Gy</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>2.5500000000000003</v>
+        <v>5.5119999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>3 Gy</v>
+        <v>2 Gy</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>5.5119999999999996</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>2 Gy</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>3 Gy</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
       <c r="D9" s="1">
-        <v>3.57</v>
+        <v>4.1760000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>3 Gy</v>
+        <v>2 Gy</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>3.0720000000000001</v>
+        <v>4.8020000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>3 Gy</v>
+        <v>2 Gy</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>4.1760000000000002</v>
+        <v>5.665</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>3 Gy</v>
+        <v>4 Gy</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>4.8020000000000005</v>
+        <v>3.4570800000000004</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>3 Gy</v>
+        <v>4 Gy</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>5.665</v>
+        <v>3.0393792000000004</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>6 Gy</v>
+        <v>4 Gy</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>4.3650000000000002</v>
+        <v>3.7635840000000007</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>6 Gy</v>
+        <v>4 Gy</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>2.4272999999999998</v>
+        <v>2.6002944000000006</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>6 Gy</v>
+        <v>4 Gy</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>3.8376000000000001</v>
+        <v>3.4841664000000003</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1162,10 +1162,10 @@
         <v>6 Gy</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>4.7520000000000007</v>
+        <v>2.9792000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1177,10 +1177,10 @@
         <v>6 Gy</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>3.2832000000000003</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1192,279 +1192,114 @@
         <v>6 Gy</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>4.3992000000000004</v>
+        <v>2.1728000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>9 Gy</v>
+        <v>6 Gy</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>2.9792000000000005</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>9 Gy</v>
+        <v>6 Gy</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>2.3296000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>9 Gy</v>
+        <v>8 Gy</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>3.8879999999999999</v>
+        <v>1.5659999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>9 Gy</v>
+        <v>8 Gy</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>2.1728000000000001</v>
+        <v>1.5911999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>9 Gy</v>
+        <v>8 Gy</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>2.04</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>9 Gy</v>
+        <v>8 Gy</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>2.3296000000000001</v>
+        <v>1.2971999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>12 Gy</v>
+        <v>8 Gy</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>1.5434999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>12</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>12 Gy</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>12</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>12 Gy</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2.7390999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>12 Gy</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2.1315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>12</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>12 Gy</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.1186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>12</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>12 Gy</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.071</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>15 Gy</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.5659999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>15</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>15 Gy</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.5911999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>15</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>15 Gy</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1.482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>15</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>15 Gy</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.2971999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>15 Gy</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2.448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>15 Gy</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1">
         <v>1.6523999999999999</v>
       </c>
     </row>
